--- a/netty-async-report.xlsx
+++ b/netty-async-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
   <si>
     <t>A. 目标</t>
   </si>
@@ -82,10 +82,16 @@
     <t>Java version: 1.6.0_45 Java HotSpot(TM) 64-Bit Server VM (build 20.45-b01, mixed mode)</t>
   </si>
   <si>
-    <t>Tomcat 7.0.62 | HttpClient 4.4.1 | Netty 4.1.Beta5</t>
+    <t>Tomcat 7.0.62 默认Connector MaxConnections:200  | HttpClient 4.4.1 | Netty 4.1.Beta5</t>
   </si>
   <si>
     <t>Linux as3 2.6.32-504.8.1.el6.x86_64 GNU/Linux</t>
+  </si>
+  <si>
+    <t>Tomcat 7.0.62 默认Connector MaxConnections:200 | HttpClient 4.4.1 | Netty 4.1.Beta5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>B. 测试结果</t>
@@ -112,19 +118,28 @@
     <t>Time(ms) per request:</t>
   </si>
   <si>
-    <t>Time(s) per request(-c):</t>
+    <t>Time(ms) per request(-c):</t>
   </si>
   <si>
     <t>Transfer rate(b/s):</t>
   </si>
   <si>
+    <t>2) 请求数R:10000,并发数N:200,POST数据包:512b</t>
+  </si>
+  <si>
+    <t>3) 请求数R:1000,并发数N:1000,POST数据包:512b</t>
+  </si>
+  <si>
     <t>D. 分析</t>
   </si>
   <si>
-    <t xml:space="preserve">1) </t>
+    <t>1) 同步每秒请求数稍高于异步；</t>
   </si>
   <si>
-    <t>2)</t>
+    <t>2) 在N:150接近Tomcat 7x默认的200时同步表现出色，推测: 异步Servlet ＋ 异步Http请求的模型可能耗损在背景线程切换上；</t>
+  </si>
+  <si>
+    <t>3) 同步测试没有跑下并发N:1000, #0 Tomcat报OutOfMemory异常;异步虽然能跑完全程,但是Tomcat最终也报OutOfMemory异常, 并没有拖挂Tomcat；结论Tomcat7x最大并发连接数在测试机器上不超过1000, 在大并发情况下异步对服务器压力较低；</t>
   </si>
   <si>
     <t xml:space="preserve">E. </t>
@@ -378,7 +393,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -438,6 +453,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -948,6 +966,487 @@
           <c:x val="0.197832"/>
           <c:y val="0.0472068"/>
           <c:w val="0.724575"/>
+          <c:h val="0.0448755"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Helvetica"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Helvetica"/>
+              </a:rPr>
+              <a:t>R:10000 C:150</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.430133"/>
+          <c:y val="0.005"/>
+          <c:w val="0.139734"/>
+          <c:h val="0.0867797"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.192144"/>
+          <c:y val="0.0867797"/>
+          <c:w val="0.77811"/>
+          <c:h val="0.850655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>同步</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="51A7F9"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="0365C0"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="0" dist="38100" dir="2700000">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="0" dist="38100" dir="2700000">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>Time taken for tests</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Faied requests</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Total transferred</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Total POSTed</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Requests per seconds</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Time per request</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Time per request(-c)</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Transfer rate</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'测试'!$F$41:$F$48</c:f>
+              <c:numCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.656000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6280.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6440.000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>280.460000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>534.835000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.566000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>348380.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>异步</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="70BF41"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="00882B"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="12700" cap="flat">
+              <a:noFill/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="0" dist="38100" dir="2700000">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:effectLst>
+                      <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="0" dist="38100" dir="2700000">
+                        <a:srgbClr val="000000"/>
+                      </a:outerShdw>
+                    </a:effectLst>
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>Time taken for tests</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Faied requests</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>Total transferred</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>Total POSTed</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>Requests per seconds</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>Time per request</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>Time per request(-c)</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>Transfer rate</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'测试'!$G$41:$G$48</c:f>
+              <c:numCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>601.028000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5181.000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5321.250000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.480000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11127.396000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.183000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17060.000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="40"/>
+        <c:overlap val="100"/>
+        <c:axId val="0"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="0"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B8B8B8"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:ln w="12700" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter lim="400000"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="0"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100000"/>
+        <c:minorUnit val="50000"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19688"/>
+          <c:y val="0.0472068"/>
+          <c:w val="0.721087"/>
           <c:h val="0.0448755"/>
         </c:manualLayout>
       </c:layout>
@@ -5639,13 +6138,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>316507</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>67429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -5654,12 +6153,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="-47473" y="12588240"/>
+        <a:off x="-47473" y="15560040"/>
         <a:ext cx="7301509" cy="3805040"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>157045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>351823</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>190184</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="92" name="Chart 92"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="-47473" y="19664245"/>
+        <a:ext cx="7336825" cy="3805040"/>
+      </xdr:xfrm>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7740,7 +8269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -8322,7 +8851,7 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -8366,7 +8895,9 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>26</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -8385,7 +8916,7 @@
     <row r="29" ht="18" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" t="s" s="15">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16"/>
@@ -8408,7 +8939,7 @@
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" t="s" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -8431,7 +8962,7 @@
     <row r="31" ht="18" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" t="s" s="4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -8458,7 +8989,7 @@
     <row r="32" ht="18" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" t="s" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -8485,7 +9016,7 @@
     <row r="33" ht="18" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" t="s" s="4">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="17"/>
@@ -8512,7 +9043,7 @@
     <row r="34" ht="18" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" t="s" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -8539,7 +9070,7 @@
     <row r="35" ht="18" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" t="s" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -8566,7 +9097,7 @@
     <row r="36" ht="18" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" t="s" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -8593,7 +9124,7 @@
     <row r="37" ht="18" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" t="s" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -8620,7 +9151,7 @@
     <row r="38" ht="18" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" t="s" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -8667,33 +9198,41 @@
     </row>
     <row r="40" ht="18" customHeight="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
+      <c r="B40" t="s" s="4">
+        <v>37</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
     </row>
     <row r="41" ht="18" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="B41" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
+        <v>35.656</v>
+      </c>
+      <c r="G41" s="4">
+        <v>601.028</v>
+      </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
@@ -8709,12 +9248,18 @@
     </row>
     <row r="42" ht="18" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
+      <c r="B42" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0</v>
+      </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
@@ -8730,12 +9275,18 @@
     </row>
     <row r="43" ht="18" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
+      <c r="B43" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4">
+        <v>6280</v>
+      </c>
+      <c r="G43" s="4">
+        <v>5181</v>
+      </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -8751,12 +9302,18 @@
     </row>
     <row r="44" ht="18" customHeight="1">
       <c r="A44" s="2"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="B44" t="s" s="4">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4">
+        <v>6440</v>
+      </c>
+      <c r="G44" s="4">
+        <v>5321.25</v>
+      </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
@@ -8772,12 +9329,18 @@
     </row>
     <row r="45" ht="18" customHeight="1">
       <c r="A45" s="2"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="B45" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4">
+        <v>280.46</v>
+      </c>
+      <c r="G45" s="4">
+        <v>13.48</v>
+      </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
@@ -8793,12 +9356,18 @@
     </row>
     <row r="46" ht="18" customHeight="1">
       <c r="A46" s="2"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="B46" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4">
+        <v>534.835</v>
+      </c>
+      <c r="G46" s="4">
+        <v>11127.396</v>
+      </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -8814,12 +9383,18 @@
     </row>
     <row r="47" ht="18" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
+      <c r="B47" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4">
+        <v>3.566</v>
+      </c>
+      <c r="G47" s="4">
+        <v>74.18300000000001</v>
+      </c>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
@@ -8835,12 +9410,18 @@
     </row>
     <row r="48" ht="18" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="B48" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="4">
+        <v>348380</v>
+      </c>
+      <c r="G48" s="4">
+        <v>17060</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -8856,145 +9437,449 @@
     </row>
     <row r="49" ht="18" customHeight="1">
       <c r="A49" s="2"/>
-      <c r="B49" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
     </row>
     <row r="50" ht="18" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" t="s" s="11">
-        <v>36</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="12"/>
-      <c r="S50" s="12"/>
+      <c r="B50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
     </row>
     <row r="51" ht="18" customHeight="1">
       <c r="A51" s="2"/>
-      <c r="B51" t="s" s="11">
-        <v>37</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
+      <c r="B51" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="4">
+        <v>567.998</v>
+      </c>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
     </row>
     <row r="52" ht="18" customHeight="1">
       <c r="A52" s="2"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
+      <c r="B52" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="4">
+        <v>6058</v>
+      </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
     </row>
     <row r="53" ht="18" customHeight="1">
       <c r="A53" s="2"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
+      <c r="B53" t="s" s="4">
+        <v>31</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="4">
+        <v>2556</v>
+      </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
     </row>
     <row r="54" ht="18" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="4">
+        <v>3581</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+    </row>
+    <row r="55" ht="18" customHeight="1">
+      <c r="A55" s="2"/>
+      <c r="B55" t="s" s="4">
+        <v>33</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="4">
+        <v>17.61</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+    </row>
+    <row r="56" ht="18" customHeight="1">
+      <c r="A56" s="2"/>
+      <c r="B56" t="s" s="4">
+        <v>34</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="4">
+        <v>56799.833</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+    </row>
+    <row r="57" ht="18" customHeight="1">
+      <c r="A57" s="2"/>
+      <c r="B57" t="s" s="4">
+        <v>35</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="4">
+        <v>56.8</v>
+      </c>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+    </row>
+    <row r="58" ht="18" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" t="s" s="4">
+        <v>36</v>
+      </c>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="4">
+        <v>10550</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+    </row>
+    <row r="59" ht="18" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+    </row>
+    <row r="60" ht="18" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+    </row>
+    <row r="61" ht="18" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+    </row>
+    <row r="62" ht="18" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+    </row>
+    <row r="63" ht="18" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+    </row>
+    <row r="64" ht="18" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" t="s" s="20">
+        <v>42</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+    </row>
+    <row r="65" ht="18" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+    </row>
+    <row r="66" ht="18" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+    </row>
+    <row r="67" ht="18" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B50:S50"/>
-    <mergeCell ref="B49:S49"/>
+  <mergeCells count="25">
     <mergeCell ref="D17:M17"/>
     <mergeCell ref="D20:M20"/>
     <mergeCell ref="D18:M18"/>
@@ -9012,6 +9897,14 @@
     <mergeCell ref="D13:M13"/>
     <mergeCell ref="B3:S3"/>
     <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B40:S40"/>
+    <mergeCell ref="B63:S63"/>
+    <mergeCell ref="B62:S62"/>
+    <mergeCell ref="B61:S61"/>
+    <mergeCell ref="B64:S65"/>
+    <mergeCell ref="B50:S50"/>
+    <mergeCell ref="B67:S67"/>
+    <mergeCell ref="B66:S66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -9031,171 +9924,171 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="20" customWidth="1"/>
-    <col min="8" max="256" width="6.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="21" customWidth="1"/>
+    <col min="8" max="256" width="6.625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" t="s" s="21">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s" s="22">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s" s="22">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s" s="22">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s" s="22">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s" s="22">
+      <c r="A1" t="s" s="22">
         <v>44</v>
       </c>
-      <c r="G1" t="s" s="22">
+      <c r="B1" t="s" s="23">
         <v>45</v>
       </c>
+      <c r="C1" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s" s="23">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s" s="23">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s" s="23">
+        <v>50</v>
+      </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" t="s" s="23">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s" s="24">
-        <v>47</v>
-      </c>
-      <c r="C2" s="25">
+      <c r="A2" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s" s="25">
+        <v>52</v>
+      </c>
+      <c r="C2" s="26">
         <v>1</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="27">
         <v>42068</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="27">
         <v>42068</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" t="s" s="24">
-        <v>48</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26">
+      <c r="A3" s="28"/>
+      <c r="B3" t="s" s="25">
+        <v>53</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27">
         <v>42068</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="27">
         <v>42068</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>49</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="25">
+      <c r="A4" t="s" s="29">
+        <v>54</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="26">
         <v>2</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="27">
         <v>42072</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="27">
         <v>42083</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" ht="16.5" customHeight="1">
-      <c r="A5" t="s" s="23">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s" s="24">
-        <v>51</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="A5" t="s" s="24">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s" s="25">
+        <v>56</v>
+      </c>
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="27">
         <v>42086</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="27">
         <v>42090</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="29"/>
-      <c r="B6" t="s" s="24">
-        <v>52</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="A6" s="30"/>
+      <c r="B6" t="s" s="25">
+        <v>57</v>
+      </c>
+      <c r="C6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="27">
         <v>42093</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="27">
         <v>42097</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" t="s" s="24">
-        <v>53</v>
-      </c>
-      <c r="C7" s="25">
+      <c r="A7" s="30"/>
+      <c r="B7" t="s" s="25">
+        <v>58</v>
+      </c>
+      <c r="C7" s="26">
         <v>1</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="27">
         <v>42097</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="27">
         <v>42102</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" t="s" s="24">
-        <v>54</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="A8" s="28"/>
+      <c r="B8" t="s" s="25">
+        <v>59</v>
+      </c>
+      <c r="C8" s="26">
         <v>2</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="27">
         <v>42103</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="27">
         <v>42104</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" ht="17" customHeight="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
